--- a/project_competence_table.xlsx
+++ b/project_competence_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Роман\PycharmProjects\Team_selection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0859FE-A5CF-4291-BAF9-04D581378CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAAD751-4FA4-4D87-A0DE-D23B9D5F30F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{92AF8D2A-D612-4840-8D69-A29B7AF0D4D6}"/>
   </bookViews>
@@ -431,7 +431,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -458,16 +458,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -481,7 +481,7 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -501,7 +501,7 @@
         <v>10</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -515,10 +515,10 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -566,7 +566,7 @@
         <v>8</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>6</v>
